--- a/Ehexcel/testdata/output.xlsx
+++ b/Ehexcel/testdata/output.xlsx
@@ -75,26 +75,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="true"/>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="B2" t="str">
+    <row r="1">
+      <c r="A1" t="str">
         <v>aaa</v>
       </c>
-      <c r="C2" t="str">
+      <c r="B1" t="str">
         <v>bbb</v>
       </c>
-      <c r="D2" t="str">
+      <c r="C1" t="str">
         <v>ccc</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" t="str">
+    <row r="2">
+      <c r="A2" t="str">
         <v>1</v>
       </c>
-      <c r="C3" t="str">
+      <c r="B2" t="str">
         <v>2</v>
       </c>
-      <c r="D3" t="str">
+      <c r="C2" t="str">
         <v>3</v>
       </c>
     </row>
